--- a/Backend/OCI.xlsx
+++ b/Backend/OCI.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\A.Khaterchi\Desktop\OCI_to_AZURE\Backend\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\A.Khaterchi\Desktop\Network_Migration\Backend\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45F00C79-3D39-4B4B-A886-6CAFBE582A88}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C976C98-5709-437F-AFCA-2A2CF2B62C71}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3240" yWindow="1308" windowWidth="17280" windowHeight="8964" tabRatio="1000" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="1000" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Release-Info" sheetId="1" r:id="rId1"/>
@@ -4277,8 +4277,8 @@
     <col min="35" max="35" width="13.109375" style="35" bestFit="1" customWidth="1"/>
     <col min="36" max="36" width="17.109375" style="35" bestFit="1" customWidth="1"/>
     <col min="37" max="37" width="12.44140625" style="35" bestFit="1" customWidth="1"/>
-    <col min="38" max="164" width="28.44140625" style="35" customWidth="1"/>
-    <col min="165" max="16384" width="28.44140625" style="35"/>
+    <col min="38" max="165" width="28.44140625" style="35" customWidth="1"/>
+    <col min="166" max="16384" width="28.44140625" style="35"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:40" s="28" customFormat="1" ht="148.05000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -6305,7 +6305,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:E1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
@@ -7848,7 +7848,7 @@
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation sqref="A1:E1 G1:XFD1 A2:XFD1048576" xr:uid="{00000000-0002-0000-0200-000000000000}"/>
+    <dataValidation sqref="A1:E1 A2:XFD1048576 G1:XFD1" xr:uid="{00000000-0002-0000-0200-000000000000}"/>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait"/>
@@ -8577,7 +8577,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:H1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
